--- a/Dissertation/model_evaluation_results.xlsx
+++ b/Dissertation/model_evaluation_results.xlsx
@@ -1,37 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\woong\AI\Dissertation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D714FF8-D6B0-4937-BAC9-789E38E79BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4935" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision (Class 0)</t>
+  </si>
+  <si>
+    <t>Precision (Class 1)</t>
+  </si>
+  <si>
+    <t>Recall (Class 0)</t>
+  </si>
+  <si>
+    <t>Recall (Class 1)</t>
+  </si>
+  <si>
+    <t>F1-Score (Class 0)</t>
+  </si>
+  <si>
+    <t>F1-Score (Class 1)</t>
+  </si>
+  <si>
+    <t>Logistic_Regression</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>Naive_Bayes</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>BiLSTM</t>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1-Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +140,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,258 +469,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Precision (Class 0)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Precision (Class 1)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Recall (Class 0)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Recall (Class 1)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>F1-Score (Class 0)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>F1-Score (Class 1)</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Logistic_Regression</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>84.8</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.8481781376518218</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8478260869565217</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>0.84817813765182182</v>
+      </c>
+      <c r="D2">
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="E2">
         <v>0.844758064516129</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.8511904761904762</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8464646464646465</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8495049504950495</v>
+      <c r="F2">
+        <v>0.85119047619047616</v>
+      </c>
+      <c r="G2">
+        <v>0.84646464646464648</v>
+      </c>
+      <c r="H2">
+        <v>0.84950495049504948</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="M2" s="3">
+        <f>AVERAGE(C2:D2)</f>
+        <v>0.84800211230417177</v>
+      </c>
+      <c r="N2" s="3">
+        <f>AVERAGE(E2:F2)</f>
+        <v>0.84797427035330264</v>
+      </c>
+      <c r="O2" s="3">
+        <f>AVERAGE(G2:H2)</f>
+        <v>0.84798479847984798</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8237791932059448</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7958412098298677</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="C3">
+        <v>0.82377919320594484</v>
+      </c>
+      <c r="D3">
+        <v>0.79584120982986772</v>
+      </c>
+      <c r="E3">
         <v>0.782258064516129</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.8353174603174603</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>0.83531746031746035</v>
+      </c>
+      <c r="G3">
         <v>0.8024819027921406</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.8151016456921588</v>
+      <c r="H3">
+        <v>0.81510164569215882</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M3" s="3">
+        <f>AVERAGE(C3:D3)</f>
+        <v>0.80981020151790628</v>
+      </c>
+      <c r="N3" s="3">
+        <f>AVERAGE(E3:F3)</f>
+        <v>0.80878776241679473</v>
+      </c>
+      <c r="O3" s="3">
+        <f>AVERAGE(G3:H3)</f>
+        <v>0.80879177424214976</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Naive_Bayes</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8194444444444444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8326612903225806</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8326612903225806</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8194444444444444</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.826</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>82.6</v>
+      </c>
+      <c r="C4">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D4">
+        <v>0.83266129032258063</v>
+      </c>
+      <c r="E4">
+        <v>0.83266129032258063</v>
+      </c>
+      <c r="F4">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="G4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="M4" s="3">
+        <f>AVERAGE(C4:D4)</f>
+        <v>0.82605286738351258</v>
+      </c>
+      <c r="N4" s="3">
+        <f>AVERAGE(E4:F4)</f>
+        <v>0.82605286738351258</v>
+      </c>
+      <c r="O4" s="3">
+        <f>AVERAGE(G4:H4)</f>
+        <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RNN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>79.2</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7943548387096774</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7896825396825397</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7911646586345381</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7928286852589641</v>
+      <c r="C5">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.79435483870967738</v>
+      </c>
+      <c r="F5">
+        <v>0.78968253968253965</v>
+      </c>
+      <c r="G5">
+        <v>0.79116465863453811</v>
+      </c>
+      <c r="H5">
+        <v>0.79282868525896411</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4">
+        <v>79.2</v>
+      </c>
+      <c r="M5" s="3">
+        <f>AVERAGE(C5:D5)</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N5" s="3">
+        <f>AVERAGE(E5:F5)</f>
+        <v>0.79201868919610852</v>
+      </c>
+      <c r="O5" s="3">
+        <f>AVERAGE(G5:H5)</f>
+        <v>0.79199667194675105</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CNN</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
         <v>79.2</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7943548387096774</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7896825396825397</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7911646586345381</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7928286852589641</v>
+      <c r="C6">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.79435483870967738</v>
+      </c>
+      <c r="F6">
+        <v>0.78968253968253965</v>
+      </c>
+      <c r="G6">
+        <v>0.79116465863453811</v>
+      </c>
+      <c r="H6">
+        <v>0.79282868525896411</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4">
+        <v>79.2</v>
+      </c>
+      <c r="M6" s="3">
+        <f>AVERAGE(C6:D6)</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N6" s="3">
+        <f>AVERAGE(E6:F6)</f>
+        <v>0.79201868919610852</v>
+      </c>
+      <c r="O6" s="3">
+        <f>AVERAGE(G6:H6)</f>
+        <v>0.79199667194675105</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BERT</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>90.5</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.8819047619047619</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9305263157894736</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9334677419354839</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.876984126984127</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9069539666993144</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9029622063329928</v>
+      <c r="C7">
+        <v>0.88190476190476186</v>
+      </c>
+      <c r="D7">
+        <v>0.93052631578947365</v>
+      </c>
+      <c r="E7">
+        <v>0.93346774193548387</v>
+      </c>
+      <c r="F7">
+        <v>0.87698412698412698</v>
+      </c>
+      <c r="G7">
+        <v>0.90695396669931438</v>
+      </c>
+      <c r="H7">
+        <v>0.90296220633299284</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="M7" s="3">
+        <f>AVERAGE(C7:D7)</f>
+        <v>0.90621553884711781</v>
+      </c>
+      <c r="N7" s="3">
+        <f>AVERAGE(E7:F7)</f>
+        <v>0.90522593445980548</v>
+      </c>
+      <c r="O7" s="3">
+        <f>AVERAGE(G7:H7)</f>
+        <v>0.90495808651615361</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BiLSTM</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7854330708661418</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8028455284552846</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8044354838709677</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7837301587301587</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7948207171314741</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.7931726907630522</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="C8">
+        <v>0.78543307086614178</v>
+      </c>
+      <c r="D8">
+        <v>0.80284552845528456</v>
+      </c>
+      <c r="E8">
+        <v>0.80443548387096775</v>
+      </c>
+      <c r="F8">
+        <v>0.78373015873015872</v>
+      </c>
+      <c r="G8">
+        <v>0.79482071713147406</v>
+      </c>
+      <c r="H8">
+        <v>0.79317269076305219</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="M8" s="3">
+        <f>AVERAGE(C8:D8)</f>
+        <v>0.79413929966071317</v>
+      </c>
+      <c r="N8" s="3">
+        <f>AVERAGE(E8:F8)</f>
+        <v>0.79408282130056329</v>
+      </c>
+      <c r="O8" s="3">
+        <f>AVERAGE(G8:H8)</f>
+        <v>0.79399670394726307</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>